--- a/Open Positions.xlsx
+++ b/Open Positions.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Professional_WorkTools\Github\RodWal-Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0789C7EB-DCB8-4DDD-A92E-F6039D327D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A92859-7271-4872-9E8E-2346D32D2DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27690" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positions" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Positions!$A$1:$J$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -154,14 +157,114 @@
   </si>
   <si>
     <t>AMAT</t>
+  </si>
+  <si>
+    <t>Duke Energy</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>LVMH</t>
+  </si>
+  <si>
+    <t>MC.PA</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>US Consumer</t>
+  </si>
+  <si>
+    <t>Asia Consumer</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>DAR</t>
+  </si>
+  <si>
+    <t>MSG</t>
+  </si>
+  <si>
+    <t>INGR</t>
+  </si>
+  <si>
+    <t>CSIQ</t>
+  </si>
+  <si>
+    <t>Canadian Solar</t>
+  </si>
+  <si>
+    <t>FSLR</t>
+  </si>
+  <si>
+    <t>First Solar</t>
+  </si>
+  <si>
+    <t>JKS</t>
+  </si>
+  <si>
+    <t>Jinko Solar</t>
+  </si>
+  <si>
+    <t>MAXN</t>
+  </si>
+  <si>
+    <t>Maxeon Solar</t>
+  </si>
+  <si>
+    <t>SEDG</t>
+  </si>
+  <si>
+    <t>SolarEdge</t>
+  </si>
+  <si>
+    <t>Solaris Oilfield</t>
+  </si>
+  <si>
+    <t>SOI</t>
+  </si>
+  <si>
+    <t>SolarWinds</t>
+  </si>
+  <si>
+    <t>SWI</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>YUMC</t>
+  </si>
+  <si>
+    <t>Yum China Holding</t>
+  </si>
+  <si>
+    <t>Yum! Brands</t>
+  </si>
+  <si>
+    <t>YUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,12 +282,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,10 +333,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -485,394 +624,813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>45518</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="E2" s="2">
-        <v>51.24</v>
+      <c r="D2" s="1">
+        <v>45553</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.0751999999999999</v>
       </c>
       <c r="F2" s="2">
-        <f>D2*E2</f>
-        <v>34.996920000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51.15</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2:G20" si="0">E2*F2</f>
+        <v>54.996479999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>273.45999999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>39.952506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45523</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>419.46</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>19.966296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D5" s="1">
         <v>45476</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E5" s="3">
         <v>0.12479999999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F5" s="2">
         <v>202.58</v>
       </c>
-      <c r="F3" s="2">
-        <f>D3*E3</f>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
         <v>25.281984000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45483</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>190.71</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>24.983010000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45544</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>144.28</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>35.189892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45460</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.1205</v>
+      </c>
+      <c r="F8" s="2">
+        <v>165.93</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>19.994565000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45484</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.1057</v>
+      </c>
+      <c r="F9" s="2">
+        <v>189.11</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>19.988927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45482</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>131.38</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>19.982898000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45482</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>227.77</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>14.987266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1933</v>
+      </c>
+      <c r="F12" s="2">
+        <v>77.53</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>14.986549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>455.4</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>14.982659999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45548</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>222.94</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>14.825510000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D15" s="1">
         <v>45544</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E15" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F15" s="2">
         <v>161.58000000000001</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F17" si="0">D4*E4</f>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
         <v>10.987440000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
-        <v>45523</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>419.46</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>19.966296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D16" s="1">
+        <v>45476</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>459.24</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>10.746216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45481</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1E-22</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1E-22</v>
+      </c>
+      <c r="F18" s="2">
+        <v>113.48</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1348000000000001E-20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45562</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>700.8</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>13.315199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45507</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9.9999999999999998E-46</v>
+      </c>
+      <c r="F20" s="2">
+        <v>63.3</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>6.3299999999999997E-44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45580</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>135.82</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" ref="G21:G22" si="1">E21*F21</f>
+        <v>25.995947999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1E-22</v>
+      </c>
+      <c r="F22" s="2">
+        <v>15.74</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5740000000000001E-21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1E-22</v>
+      </c>
+      <c r="F23" s="2">
+        <v>230.91</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" ref="G23" si="2">E23*F23</f>
+        <v>2.3091E-20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1E-22</v>
+      </c>
+      <c r="F24" s="2">
+        <v>29.94</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" ref="G24" si="3">E24*F24</f>
+        <v>2.9940000000000003E-21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1E-22</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" ref="G25" si="4">E25*F25</f>
+        <v>8.3000000000000007E-24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1E-22</v>
+      </c>
+      <c r="F26" s="2">
+        <v>20.11</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" ref="G26" si="5">E26*F26</f>
+        <v>2.0110000000000001E-21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1E-22</v>
+      </c>
+      <c r="F27" s="2">
+        <v>13.49</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" ref="G27" si="6">E27*F27</f>
+        <v>1.3490000000000002E-21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45511</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1E-22</v>
+      </c>
+      <c r="F28" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:G31" si="7">E28*F28</f>
+        <v>1.2800000000000001E-21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
-        <v>45476</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>459.24</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>10.746216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45548</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>222.94</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>14.825510000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45482</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6.5799999999999997E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>227.77</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>14.987266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45460</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.1205</v>
-      </c>
-      <c r="E9" s="2">
-        <v>165.93</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>19.994565000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45483</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <v>190.71</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>24.983010000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45544</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.13689999999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>147.47999999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>20.190011999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45484</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.1057</v>
-      </c>
-      <c r="E12" s="2">
-        <v>189.11</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>19.988927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45482</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.15210000000000001</v>
-      </c>
-      <c r="E13" s="2">
-        <v>131.38</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>19.982898000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45511</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>260.8</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>14.996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45511</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.1933</v>
-      </c>
-      <c r="E15" s="2">
-        <v>77.53</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>14.986549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45511</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>455.4</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>14.982659999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45481</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8.2900000000000001E-2</v>
-      </c>
-      <c r="E17" s="2">
-        <v>244.47</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>20.266563000000001</v>
+      <c r="D29" s="1">
+        <v>45568</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>417.1</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="7"/>
+        <v>14.973890000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45505</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1E-35</v>
+      </c>
+      <c r="F30" s="2">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="7"/>
+        <v>6.6540000000000005E-34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45574</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9.9999999999999998E-46</v>
+      </c>
+      <c r="F31" s="2">
+        <v>46.53</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="7"/>
+        <v>4.6529999999999999E-44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45580</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.1047</v>
+      </c>
+      <c r="F32" s="2">
+        <v>133.61000000000001</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" ref="G32" si="8">E32*F32</f>
+        <v>13.988967000000002</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J32" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="MSFT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
